--- a/biology/Écologie/Selina_Leem/Selina_Leem.xlsx
+++ b/biology/Écologie/Selina_Leem/Selina_Leem.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Selina Leem est une militante pour le climat et poète originaire des îles Marshall.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leem naît et grandit à Majuro, la capitale des îles Marshall[1]. À seize ans, elle déménage en Allemagne pour ses études, puis intègre l'United World College Robert Bosch (en) à Fribourg[2], où elle étudie le réchauffement climatique. Elle y est encouragée par son grand-père, qui lui parle des conséquences de l'élévation du niveau de la mer sur son île natale[3].
-Elle commence à militer pour l'écologie, estimant que les îles Marshall sont très vulnérables aux risques climatiques et que l'État n'a ni les moyens, ni l'expertise de s'adapter[4].
-À dix-huit ans, elle est invitée à la Conférence de Paris de 2015 sur les changements climatiques par le ministre des affaires étrangères Tony deBrum, et elle y fait le discours de clôture. Elle est la plus jeune présentatrice de l'événement[2]. Elle représente les îles Marshall dans le documentaire Avant le déluge en 2016[5].
-Elle s'exprime à nouveau à la Conférence de Glasgow de 2021 sur les changements climatiques. Elle y loue les efforts de son gouvernement pour atteindre 100 % d'énergies renouvelables et prononce le discours d'ouverture du sommet[6],[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leem naît et grandit à Majuro, la capitale des îles Marshall. À seize ans, elle déménage en Allemagne pour ses études, puis intègre l'United World College Robert Bosch (en) à Fribourg, où elle étudie le réchauffement climatique. Elle y est encouragée par son grand-père, qui lui parle des conséquences de l'élévation du niveau de la mer sur son île natale.
+Elle commence à militer pour l'écologie, estimant que les îles Marshall sont très vulnérables aux risques climatiques et que l'État n'a ni les moyens, ni l'expertise de s'adapter.
+À dix-huit ans, elle est invitée à la Conférence de Paris de 2015 sur les changements climatiques par le ministre des affaires étrangères Tony deBrum, et elle y fait le discours de clôture. Elle est la plus jeune présentatrice de l'événement. Elle représente les îles Marshall dans le documentaire Avant le déluge en 2016.
+Elle s'exprime à nouveau à la Conférence de Glasgow de 2021 sur les changements climatiques. Elle y loue les efforts de son gouvernement pour atteindre 100 % d'énergies renouvelables et prononce le discours d'ouverture du sommet,.
 </t>
         </is>
       </c>
